--- a/Daten/Schulferien/Ferien91-92.xlsx
+++ b/Daten/Schulferien/Ferien91-92.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2617F81CE85A6236F81190441DEB99D173DDCE4B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4567AC0B-E674-4E6B-8B6A-D6515A80C68E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,125 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
+  <si>
+    <t xml:space="preserve">Land </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommer </t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Sekretariat der Ständigen Konferenz 
-der Kultusminister der Länder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 1991/92</t>
+    <t xml:space="preserve">Herbst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weihnachten </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">Winter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostern/Frühjahr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himmelf./Pfingsten </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">1991/92 </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">in der Bundesrepublik Deutschland 
-Lennéstr. 6, 53113 Bonn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in den Ländern in der</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel: 0228/501-660 Fax: 0228/501-777 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bundesrepublik Deutschland </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Land </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommer </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbst </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weihnachten </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostern/Frühjahr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himmelf./Pfingsten </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">1991/92 </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">Baden-Württemberg </t>
   </si>
   <si>
-    <t xml:space="preserve">11.07. -</t>
+    <t>11.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">24.08. </t>
@@ -157,17 +84,14 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">1) </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">04.01. </t>
   </si>
   <si>
@@ -183,7 +107,7 @@
     <t xml:space="preserve">Bayern </t>
   </si>
   <si>
-    <t xml:space="preserve">25.07. -</t>
+    <t>25.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">09.09. </t>
@@ -192,9 +116,6 @@
     <t xml:space="preserve">28.10. - 02.11. </t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">04.01. </t>
   </si>
   <si>
@@ -210,7 +131,7 @@
     <t xml:space="preserve">Berlin </t>
   </si>
   <si>
-    <t xml:space="preserve">04.07. -</t>
+    <t>04.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">21.08. </t>
@@ -225,17 +146,14 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">4) </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">06.01. </t>
   </si>
   <si>
@@ -251,7 +169,7 @@
     <t xml:space="preserve">Berlin Ost </t>
   </si>
   <si>
-    <t xml:space="preserve">08.07. -</t>
+    <t>08.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">21.08. </t>
@@ -278,7 +196,7 @@
     <t xml:space="preserve">Brandenburg </t>
   </si>
   <si>
-    <t xml:space="preserve">04.07. -</t>
+    <t>04.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">21.08. </t>
@@ -287,9 +205,6 @@
     <t xml:space="preserve">21.10. - 25.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">21.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">04.01. </t>
   </si>
   <si>
@@ -305,7 +220,7 @@
     <t xml:space="preserve">Bremen </t>
   </si>
   <si>
-    <t xml:space="preserve">04.07. -</t>
+    <t>04.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">17.08. </t>
@@ -314,9 +229,6 @@
     <t xml:space="preserve">14.10. - 19.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">06.01. </t>
   </si>
   <si>
@@ -332,16 +244,13 @@
     <t xml:space="preserve">Hamburg </t>
   </si>
   <si>
-    <t xml:space="preserve">01.07. -</t>
+    <t>01.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">10.08. </t>
   </si>
   <si>
     <t xml:space="preserve">04.10. - 19.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
   </si>
   <si>
     <t xml:space="preserve">04.01. </t>
@@ -359,9 +268,9 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">2) </t>
     </r>
@@ -381,7 +290,7 @@
     <t xml:space="preserve">Hessen </t>
   </si>
   <si>
-    <t xml:space="preserve">01.07. -</t>
+    <t>01.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">10.08. </t>
@@ -396,17 +305,14 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">5) </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.01. </t>
   </si>
   <si>
@@ -423,7 +329,7 @@
 Vorpommern </t>
   </si>
   <si>
-    <t xml:space="preserve">08.07. -</t>
+    <t>08.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">23.08. </t>
@@ -432,9 +338,6 @@
     <t xml:space="preserve">21.10. - 25.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
     <t xml:space="preserve">03.01. </t>
   </si>
   <si>
@@ -450,7 +353,7 @@
     <t xml:space="preserve">Niedersachsen </t>
   </si>
   <si>
-    <t xml:space="preserve">04.07. -</t>
+    <t>04.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">14.08. </t>
@@ -459,7 +362,25 @@
     <t xml:space="preserve">10.10. - 19.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">21.12. -</t>
+    <t>--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.04. - 21.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.06. - 09.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen </t>
+  </si>
+  <si>
+    <t>18.07. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.10. - 26.10. </t>
   </si>
   <si>
     <t xml:space="preserve">06.01. </t>
@@ -468,28 +389,25 @@
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">01.04. - 21.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.06. - 09.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.08. </t>
+    <t xml:space="preserve">06.04. - 25.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinland-Pfalz </t>
+  </si>
+  <si>
+    <t>20.06. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.07. </t>
   </si>
   <si>
     <t xml:space="preserve">21.10. - 26.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.01. </t>
+    <t xml:space="preserve">08.01. </t>
   </si>
   <si>
     <t>--</t>
@@ -501,37 +419,10 @@
     <t xml:space="preserve">09.06. </t>
   </si>
   <si>
-    <t xml:space="preserve">Rheinland-Pfalz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.06. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.07. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10. - 26.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.01. </t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.04. - 25.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.06. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Saarland </t>
   </si>
   <si>
-    <t xml:space="preserve">18.06. -</t>
+    <t>18.06. -</t>
   </si>
   <si>
     <t xml:space="preserve">31.07. </t>
@@ -546,15 +437,12 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">5) </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
   </si>
   <si>
     <t xml:space="preserve">06.01. </t>
@@ -569,9 +457,9 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">3) </t>
     </r>
@@ -586,7 +474,7 @@
     <t xml:space="preserve">Sachsen </t>
   </si>
   <si>
-    <t xml:space="preserve">08.07. -</t>
+    <t>08.07. -</t>
   </si>
   <si>
     <t xml:space="preserve">23.08. </t>
@@ -595,93 +483,78 @@
     <t xml:space="preserve">14.10. - 18.10. </t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. -</t>
+    <t xml:space="preserve">20.02. - 28.02. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.04. - 24.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.06. - 09.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen-Anhalt </t>
+  </si>
+  <si>
+    <t>15.07. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.10. - 25.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.02. - 21.02. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04. - 21.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.06. - 10.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schleswig-Holstein </t>
+  </si>
+  <si>
+    <t>28.06. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.10. - 26.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.01. </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.04. - 25.04. </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thüringen </t>
+  </si>
+  <si>
+    <t>15.07. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.10. - 25.10. </t>
   </si>
   <si>
     <t xml:space="preserve">03.01. </t>
   </si>
   <si>
-    <t xml:space="preserve">20.02. - 28.02. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.04. - 24.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.06. - 09.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.07. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10. - 25.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.01. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.02. - 21.02. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.04. - 21.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.06. - 10.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schleswig-Holstein </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.06. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10. - 26.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.01. </t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.04. - 25.04. </t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.07. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10. - 25.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.01. </t>
-  </si>
-  <si>
     <t xml:space="preserve">10.02. - 21.02. </t>
   </si>
   <si>
@@ -691,80 +564,38 @@
     <t xml:space="preserve">05.06. - 09.06. </t>
   </si>
   <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.10. unterrichtsfrei </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frühjahrsferien </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> schulfrei (Fastnacht) </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab Herbst 1991 sind in Berlin einheitliche Ferien </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> am 04.10.1991 ist unterrichtsfrei </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand: 12. Sept. 1991 </t>
+    <t>23.12. - 04.01.</t>
+  </si>
+  <si>
+    <t>21.12. - 04.01.</t>
+  </si>
+  <si>
+    <t>23.12. - 06.01.</t>
+  </si>
+  <si>
+    <t>23.12. - 11.01.</t>
+  </si>
+  <si>
+    <t>23.12. - 03.01.</t>
+  </si>
+  <si>
+    <t>21.12. - 06.01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. - 03.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. - 08.01. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -782,6 +613,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1103,115 +943,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,6 +1058,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,12 +1326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26"/>
     <col min="2" max="2" width="36"/>
@@ -1506,710 +1346,628 @@
     <col min="9" max="9" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="28" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A2" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="28">
+        <v>1991</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="18" customHeight="1">
-      <c r="A3" s="0" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="H4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11">
-        <v>1991</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13">
-        <v>1991</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="13">
-        <v>1992</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1992</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A6" s="15" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="24" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="I9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="E10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="G10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="H10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="17" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="D11" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="E11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="G11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="H11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="I11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="C12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="E12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="30" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="H12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="I12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="22" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="B13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="C13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="E13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="G13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="H13" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="E14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I14" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="31" customHeight="1">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="H15" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I15" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="19" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="H16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="I16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="18" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="C17" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="E17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="G17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="H17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="I17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="17" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="B18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="C18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="D18" s="10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="E18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="G18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="H18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="I18" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="21" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="E19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="G19" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="H19" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="I19" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>205</v>
-      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="6">
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A28:I28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
